--- a/federal_agg_state/federal_agg_state_2010_2011.xlsx
+++ b/federal_agg_state/federal_agg_state_2010_2011.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.201</v>
+        <v>0.144</v>
       </c>
       <c r="B2">
-        <v>7.374</v>
+        <v>4.333</v>
       </c>
       <c r="C2">
-        <v>0.777</v>
+        <v>0.808</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.076</v>
+        <v>0.012</v>
       </c>
       <c r="B2">
-        <v>1.82</v>
+        <v>0.921</v>
       </c>
       <c r="C2">
-        <v>0.777</v>
+        <v>0.801</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.038</v>
+        <v>-0.078</v>
       </c>
       <c r="B2">
-        <v>0.38</v>
+        <v>0.257</v>
       </c>
       <c r="C2">
-        <v>12772.08</v>
+        <v>16395.06</v>
       </c>
       <c r="D2">
-        <v>0.176</v>
+        <v>0.141</v>
       </c>
     </row>
   </sheetData>
